--- a/DATA_goal/Junction_Flooding_106.xlsx
+++ b/DATA_goal/Junction_Flooding_106.xlsx
@@ -449,28 +449,28 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41538.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>82.98999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41538.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.79</v>
+        <v>4.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.28</v>
+        <v>3.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.56</v>
+        <v>5.26</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>218.14</v>
+        <v>21.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.34</v>
+        <v>4.13</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.48</v>
+        <v>2.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.68</v>
+        <v>2.77</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.23</v>
+        <v>4.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41538.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.98</v>
+        <v>3.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.07</v>
+        <v>2.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.94</v>
+        <v>4.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>168.94</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>23.1</v>
+        <v>2.31</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.19</v>
+        <v>4.22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41538.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.95</v>
+        <v>2.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41538.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>107.09</v>
+        <v>10.71</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.49</v>
+        <v>2.45</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41538.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>30.65</v>
+        <v>3.06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>113.98</v>
+        <v>11.4</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41538.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45.73</v>
+        <v>4.57</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>61.71</v>
+        <v>6.17</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.39</v>
+        <v>2.54</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>243.33</v>
+        <v>24.33</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46</v>
+        <v>4.6</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.85</v>
+        <v>3.09</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.42</v>
+        <v>1.94</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>56.15</v>
+        <v>5.61</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41538.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.32</v>
+        <v>4.53</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.28</v>
+        <v>3.73</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.08</v>
+        <v>6.41</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.17</v>
+        <v>2.52</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>241.05</v>
+        <v>24.11</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.65</v>
+        <v>4.57</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.78</v>
+        <v>3.08</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.49</v>
+        <v>3.15</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.23</v>
+        <v>1.92</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.36</v>
+        <v>5.84</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.75</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41538.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>40.52</v>
+        <v>4.05</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.33</v>
+        <v>3.33</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>58.01</v>
+        <v>5.8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.25</v>
+        <v>1.62</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.75</v>
+        <v>2.07</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>214.72</v>
+        <v>21.47</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>40.82</v>
+        <v>4.08</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.52</v>
+        <v>2.75</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>28.35</v>
+        <v>2.83</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>52.8</v>
+        <v>5.28</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_106.xlsx
+++ b/DATA_goal/Junction_Flooding_106.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44787.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44787.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.11</v>
+        <v>51.12</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.1</v>
+        <v>41.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.8</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.47</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.2</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.47</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.6</v>
+        <v>26.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.31</v>
+        <v>273.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.15</v>
+        <v>51.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.43</v>
+        <v>34.26</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.44</v>
+        <v>34.36</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.2</v>
+        <v>61.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44787.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.28</v>
+        <v>32.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.23</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44787.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.76</v>
+        <v>37.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.05</v>
+        <v>30.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.94</v>
+        <v>49.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.55</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.87</v>
+        <v>198.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.77</v>
+        <v>37.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.57</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.45</v>
+        <v>44.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_106.xlsx
+++ b/DATA_goal/Junction_Flooding_106.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44787.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,79 +759,79 @@
         <v>44787.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.32</v>
+        <v>23.323</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.25</v>
+        <v>17.251</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.991</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.12</v>
+        <v>51.122</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.04</v>
+        <v>41.038</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.23</v>
+        <v>18.232</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.95999999999999</v>
+        <v>67.96299999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.47</v>
+        <v>28.474</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.54</v>
+        <v>12.537</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.2</v>
+        <v>18.201</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.47</v>
+        <v>20.475</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.88</v>
+        <v>21.883</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.7</v>
+        <v>5.696</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.01</v>
+        <v>26.009</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.8</v>
+        <v>15.797</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.09</v>
+        <v>273.089</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>51.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.26</v>
+        <v>34.261</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.02</v>
+        <v>18.023</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.82</v>
+        <v>2.825</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.36</v>
+        <v>34.364</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>15.02</v>
@@ -840,22 +840,22 @@
         <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.76</v>
+        <v>15.761</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.55</v>
+        <v>21.548</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.99</v>
+        <v>61.989</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.42</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
@@ -863,55 +863,55 @@
         <v>44787.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.2</v>
+        <v>3.199</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.862</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>7.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.18</v>
+        <v>5.182</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.44</v>
+        <v>2.444</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>17.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.04</v>
+        <v>4.043</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.785</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.085</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.905</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.24</v>
+        <v>3.238</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.67</v>
+        <v>3.674</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.57</v>
+        <v>2.567</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.26</v>
@@ -920,46 +920,46 @@
         <v>32.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.807</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.98</v>
+        <v>4.981</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.5</v>
+        <v>2.501</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.23</v>
+        <v>8.231</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.084</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.4</v>
+        <v>2.403</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.06</v>
+        <v>3.059</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.68</v>
+        <v>16.685</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>1.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44787.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_106.xlsx
+++ b/DATA_goal/Junction_Flooding_106.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,103 +967,207 @@
         <v>44787.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.16</v>
+        <v>17.164</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.8</v>
+        <v>12.797</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.123</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.6</v>
+        <v>37.605</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.46</v>
+        <v>30.458</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.453</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.38</v>
+        <v>49.378</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.91</v>
+        <v>20.914</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>9.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.55</v>
+        <v>13.553</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.08</v>
+        <v>15.081</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.09</v>
+        <v>16.087</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.21</v>
+        <v>4.213</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.15</v>
+        <v>19.153</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.51</v>
+        <v>11.511</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.67</v>
+        <v>198.669</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.72</v>
+        <v>37.723</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>25.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.29</v>
+        <v>13.291</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.958</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.57</v>
+        <v>24.567</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.541</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.54</v>
+        <v>44.542</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.97</v>
+        <v>6.974</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44787.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_106.xlsx
+++ b/DATA_goal/Junction_Flooding_106.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,207 +967,103 @@
         <v>44787.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.164</v>
+        <v>17.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.797</v>
+        <v>12.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.123</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.605</v>
+        <v>37.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.458</v>
+        <v>30.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.453</v>
+        <v>13.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.378</v>
+        <v>49.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.914</v>
+        <v>20.91</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>9.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.553</v>
+        <v>13.55</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.081</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.087</v>
+        <v>16.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.213</v>
+        <v>4.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.535</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.153</v>
+        <v>19.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.511</v>
+        <v>11.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.619</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.669</v>
+        <v>198.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.723</v>
+        <v>37.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.493</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>25.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.291</v>
+        <v>13.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.958</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.567</v>
+        <v>24.57</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.035</v>
+        <v>11.03</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.541</v>
+        <v>11.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.858</v>
+        <v>15.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.542</v>
+        <v>44.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.974</v>
+        <v>6.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.619</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44787.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>
